--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-date.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-date.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/hiv-viral-load-suppression-most-recent-test-date</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-viral-load-suppression-most-recent-test-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -647,7 +647,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-hiv-obs-codes"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-hiv-obs-codes"/&gt;
     &lt;code value="HIV-RECENCY-TEST-CONDUCTED"/&gt;
     &lt;display value="VL most recent test date"/&gt;
   &lt;/coding&gt;

--- a/StructureDefinition-hiv-viral-load-suppression-most-recent-test-date.xlsx
+++ b/StructureDefinition-hiv-viral-load-suppression-most-recent-test-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T14:29:27+00:00</t>
+    <t>2022-11-30T18:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
